--- a/dump for Spyder/WingData.xlsx
+++ b/dump for Spyder/WingData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tanika Dodhia\Documents\University\Fifth Year\Group Project\Python Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="8_{11A4F54A-B987-4996-B6EA-4718F3CC28E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6A786AB-D200-4D75-A1F8-AABEAC4A65A4}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="8_{11A4F54A-B987-4996-B6EA-4718F3CC28E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D330FBDF-B284-4F5F-85D7-784EDE6F9F95}"/>
   <bookViews>
     <workbookView xWindow="4370" yWindow="810" windowWidth="14400" windowHeight="7270" xr2:uid="{7D12F7EF-7898-4DF0-A7D1-8BE1FE745624}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -485,7 +485,8 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2">
-        <v>40</v>
+        <f>40*2</f>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>12.6</v>
@@ -536,7 +537,8 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>37</v>
+        <f>37*2</f>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>12.6</v>
@@ -586,7 +588,8 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>35</v>
+        <f>35*2</f>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>12.6</v>
@@ -600,7 +603,7 @@
         <v>3172</v>
       </c>
       <c r="E4">
-        <v>1.296</v>
+        <v>4.2960000000000003</v>
       </c>
       <c r="F4">
         <f>1.399*10^7</f>
@@ -637,7 +640,8 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>33</v>
+        <f>33*2</f>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>12.6</v>
@@ -651,7 +655,7 @@
         <v>2992</v>
       </c>
       <c r="E5">
-        <v>1.052</v>
+        <v>4.0519999999999996</v>
       </c>
       <c r="F5">
         <f>1.275*10^7</f>
@@ -702,7 +706,7 @@
         <v>2722</v>
       </c>
       <c r="E6">
-        <v>0.75509999999999999</v>
+        <v>4.7550999999999997</v>
       </c>
       <c r="F6">
         <f>1.072*10^7</f>
@@ -753,7 +757,7 @@
         <v>1822</v>
       </c>
       <c r="E7">
-        <v>2.2179999999999998E-2</v>
+        <v>4.0221799999999996</v>
       </c>
       <c r="F7">
         <f>5.942*10^6</f>
